--- a/Banking.xlsx
+++ b/Banking.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>12345678901234</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>19900202</t>
+  </si>
+  <si>
+    <t>96245359390756</t>
+  </si>
+  <si>
+    <t>qwerty1234</t>
+  </si>
+  <si>
+    <t>김경필</t>
+  </si>
+  <si>
+    <t>20020821</t>
   </si>
 </sst>
 </file>
@@ -92,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -112,7 +124,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="n">
-        <v>12345.0</v>
+        <v>1012345.0</v>
       </c>
     </row>
     <row r="2">
@@ -149,6 +161,23 @@
         <v>1926.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1000000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
